--- a/資料表.xlsx
+++ b/資料表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagabondtornado6\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagabondtornado6\Desktop\壁磚\Penguin48763-s-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CAC8EC-B840-4808-8953-AD73DC62E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0781E9-11BA-4AC4-9F93-EC150CEE2B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5A7E51D-5BAE-4E6B-8489-BB63F195771A}"/>
+    <workbookView xWindow="-12510" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{C5A7E51D-5BAE-4E6B-8489-BB63F195771A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>用戶ID(Primary key)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聊天ID(Primary key)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天對象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖片路徑*5(名稱id-?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按讚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>儲存的文章(id, array)(FK?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +159,58 @@
   </si>
   <si>
     <t>售出與否(售出、未售、暫售)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品狀態概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天室ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3C產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家電(根據需求再往後加)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tag ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籍(boolean)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,16 +584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72792591-08EF-4AD0-8A8F-CF07EC1A9C2C}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
@@ -564,11 +604,12 @@
     <col min="10" max="10" width="16.625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="25.875" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="22.5" customWidth="1"/>
+    <col min="13" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="18" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -594,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -609,22 +650,25 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -641,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -653,29 +697,30 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -690,24 +735,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
